--- a/individual_results/avey/26.xlsx
+++ b/individual_results/avey/26.xlsx
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0.4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0.1666666666666667</v>
@@ -588,19 +588,19 @@
         <v>0.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="O2" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="P2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -625,16 +625,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0.25</v>
@@ -661,19 +661,19 @@
         <v>0.25</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="O3" t="n">
         <v>0.25</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -697,18 +697,12 @@
           <t>f1-score</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.25</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
         <v>0.4444444444444445</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.4444444444444445</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
         <v>0.2</v>
       </c>
@@ -732,18 +726,14 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="O4" t="n">
         <v>0.2857142857142858</v>
       </c>
-      <c r="P4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="n">
-        <v>0.2222222222222222</v>
-      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
         <v>0.3333333333333333</v>
@@ -764,18 +754,12 @@
           <t>f2-score</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.25</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
         <v>0.4761904761904762</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.2380952380952381</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.4761904761904762</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>0.2272727272727273</v>
       </c>
@@ -799,18 +783,14 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="O5" t="n">
         <v>0.2631578947368421</v>
       </c>
-      <c r="P5" t="n">
-        <v>0.4166666666666667</v>
-      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="n">
-        <v>0.2380952380952381</v>
-      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
         <v>0.2777777777777778</v>
@@ -832,16 +812,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07026687648649678</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0.7729356413514646</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4433346306586146</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7729356413514646</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0.3026229651177267</v>
@@ -850,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7913356909966908</v>
+        <v>0.357467732314226</v>
       </c>
       <c r="I6" t="n">
         <v>0.3708455394425126</v>
@@ -868,19 +848,19 @@
         <v>0.0886669261317229</v>
       </c>
       <c r="N6" t="n">
-        <v>0.7729356413514646</v>
+        <v>0.7026687648649679</v>
       </c>
       <c r="O6" t="n">
         <v>0.1405337529729936</v>
       </c>
       <c r="P6" t="n">
-        <v>0.478188095079703</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4433346306586146</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -914,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -923,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -984,10 +964,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -996,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -1020,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="b">
         <v>0</v>
       </c>
       <c r="R8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -1057,10 +1037,10 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -1069,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -1093,13 +1073,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="b">
         <v>0</v>
       </c>
       <c r="R9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -1127,19 +1107,13 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
         <v>4</v>
       </c>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>5</v>
@@ -1153,13 +1127,9 @@
         <v>1</v>
       </c>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="n">
-        <v>2</v>
-      </c>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
